--- a/myCCB/www/xMDA/xMDA_tables/figure-3b-table.xlsx
+++ b/myCCB/www/xMDA/xMDA_tables/figure-3b-table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Year-Quarter</t>
   </si>
@@ -54,12 +54,21 @@
   </si>
   <si>
     <t xml:space="preserve">2021 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -99,8 +108,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C31" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C49" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C49"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Year-Quarter"/>
     <tableColumn id="2" name="Race/Ethnicity"/>
@@ -388,10 +397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -419,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="13">
@@ -617,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="22">
@@ -639,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="23">
@@ -650,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>0.649</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="26">
@@ -683,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="27">
@@ -694,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>0.304</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>0.864</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="31">
@@ -738,7 +747,205 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>0.086</v>
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.042</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.063</v>
       </c>
     </row>
   </sheetData>
